--- a/result-summary.xlsx
+++ b/result-summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndhpr\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PSI-SCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{07F8C578-C489-4D86-AAA7-E6883D9502A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1CF723FF-1806-45E8-8942-7C5546A02FDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D8EE4-AB2C-4CF1-BF3C-2AF629F17913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1365" windowWidth="15375" windowHeight="7875" xr2:uid="{41D6906E-7D50-4C81-AE34-44C498C45DBF}"/>
   </bookViews>
@@ -659,25 +659,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>96.98</v>
+        <v>96.83</v>
       </c>
       <c r="D2" s="2">
-        <v>96.82</v>
+        <v>96.66</v>
       </c>
       <c r="E2" s="2">
-        <v>97.2</v>
+        <v>97.06</v>
       </c>
       <c r="F2" s="2">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="G2" s="2">
-        <v>98.54</v>
+        <v>98.47</v>
       </c>
       <c r="H2" s="2">
-        <v>97.2</v>
+        <v>97.06</v>
       </c>
       <c r="I2" s="3">
-        <v>97.87</v>
+        <v>97.76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,25 +688,25 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>98.46</v>
+        <v>98.41</v>
       </c>
       <c r="D3" s="2">
-        <v>97.78</v>
+        <v>97.75</v>
       </c>
       <c r="E3" s="2">
-        <v>99.27</v>
+        <v>99.2</v>
       </c>
       <c r="F3" s="2">
         <v>3.71</v>
       </c>
       <c r="G3" s="2">
-        <v>98.62</v>
+        <v>98.61</v>
       </c>
       <c r="H3" s="2">
-        <v>99.27</v>
+        <v>99.2</v>
       </c>
       <c r="I3" s="3">
-        <v>98.94</v>
+        <v>98.91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -720,19 +720,19 @@
         <v>99.18</v>
       </c>
       <c r="D4" s="4">
-        <v>98.9</v>
+        <v>98.79</v>
       </c>
       <c r="E4" s="4">
-        <v>99.57</v>
+        <v>99.71</v>
       </c>
       <c r="F4" s="4">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="G4" s="4">
-        <v>99.28</v>
+        <v>99.14</v>
       </c>
       <c r="H4" s="4">
-        <v>99.57</v>
+        <v>99.71</v>
       </c>
       <c r="I4" s="5">
         <v>99.43</v>
